--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-10T00:01:37+00:00</t>
+    <t>2021-11-10T17:08:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-10T17:08:38+00:00</t>
+    <t>2021-11-10T17:51:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-10T17:51:54+00:00</t>
+    <t>2021-11-10T18:31:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Property</t>
   </si>
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://moh.fhir/bc-clientregistry/ValueSet/bc-address-type-value-set</t>
+    <t>http://hl7.org/fhir/ca-bc/client/ValueSet/bc-address-type-value-set</t>
   </si>
   <si>
     <t>Version</t>
@@ -58,10 +58,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-10T18:31:12+00:00</t>
+    <t>2021-11-17T18:19:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
+  </si>
+  <si>
+    <t>BC Ministry of Health</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>No display for ContactDetail</t>
   </si>
   <si>
     <t>Description</t>
@@ -234,7 +243,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -310,34 +319,44 @@
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" t="s" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -359,12 +378,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -386,32 +405,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ca-bc/client/ValueSet/bc-address-type-value-set</t>
+    <t>http://hlth.gov.bc.ca/fhir/client/ValueSet/bc-address-type-value-set</t>
   </si>
   <si>
     <t>Version</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-17T18:19:53+00:00</t>
+    <t>2021-11-17T21:28:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Canada</t>
   </si>
   <si>
     <t>Description</t>
@@ -243,7 +249,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -343,20 +349,28 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>24</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -378,12 +392,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -405,32 +419,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-17T21:28:52+00:00</t>
+    <t>2021-11-17T22:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -37,7 +37,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>BCAddressType</t>
+    <t>BCAddressTypeVS</t>
   </si>
   <si>
     <t>Title</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-17T22:00:02+00:00</t>
+    <t>2021-11-26T18:59:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-26T18:59:02+00:00</t>
+    <t>2021-11-29T18:20:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T18:20:37+00:00</t>
+    <t>2021-11-29T18:24:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T18:24:57+00:00</t>
+    <t>2021-11-29T18:48:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T18:48:09+00:00</t>
+    <t>2021-11-30T19:25:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-30T19:25:31+00:00</t>
+    <t>2021-12-02T21:15:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-02T21:15:02+00:00</t>
+    <t>2021-12-09T00:03:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T00:03:23+00:00</t>
+    <t>2021-12-09T17:37:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T17:37:25+00:00</t>
+    <t>2021-12-09T21:10:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T21:10:46+00:00</t>
+    <t>2021-12-10T17:02:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -43,7 +43,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>BC Address Type value set.</t>
+    <t>BC Address Type Value Set</t>
   </si>
   <si>
     <t>Status</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T17:02:58+00:00</t>
+    <t>2021-12-10T22:55:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T22:55:51+00:00</t>
+    <t>2021-12-13T17:09:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T17:09:25+00:00</t>
+    <t>2021-12-13T17:28:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T17:28:44+00:00</t>
+    <t>2021-12-13T18:05:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T18:05:39+00:00</t>
+    <t>2021-12-13T18:53:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T18:53:22+00:00</t>
+    <t>2022-01-13T21:54:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-13T21:54:20+00:00</t>
+    <t>2022-01-13T21:55:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-13T21:55:58+00:00</t>
+    <t>2022-01-13T22:56:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-13T22:56:00+00:00</t>
+    <t>2022-01-14T19:25:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-14T19:25:17+00:00</t>
+    <t>2022-02-14T21:52:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T21:52:54+00:00</t>
+    <t>2022-02-22T22:51:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T22:51:29+00:00</t>
+    <t>2022-03-01T16:19:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T16:19:31+00:00</t>
+    <t>2022-03-07T20:54:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T20:54:41+00:00</t>
+    <t>2022-03-07T21:23:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T21:23:32+00:00</t>
+    <t>2022-03-07T23:08:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T23:08:33+00:00</t>
+    <t>2022-03-07T23:35:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-07T23:35:33+00:00</t>
+    <t>2022-03-14T20:50:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-14T20:50:06+00:00</t>
+    <t>2022-03-18T18:31:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T18:31:40+00:00</t>
+    <t>2022-03-25T22:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T22:02:43+00:00</t>
+    <t>2022-03-29T20:42:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T20:42:47+00:00</t>
+    <t>2022-04-01T14:00:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-01T14:00:38+00:00</t>
+    <t>2022-04-04T20:52:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-04T20:52:49+00:00</t>
+    <t>2022-04-05T16:12:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T16:12:45+00:00</t>
+    <t>2022-04-05T17:59:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T17:59:30+00:00</t>
+    <t>2022-04-18T22:34:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T22:34:02+00:00</t>
+    <t>2022-04-19T16:13:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T16:13:11+00:00</t>
+    <t>2022-04-20T20:38:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -37,7 +37,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>BCAddressTypeVS</t>
+    <t>AddressTypeVS</t>
   </si>
   <si>
     <t>Title</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T20:38:51+00:00</t>
+    <t>2022-05-17T18:05:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T18:05:03+00:00</t>
+    <t>2022-06-06T16:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T16:35:02+00:00</t>
+    <t>2022-06-06T19:02:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T19:02:23+00:00</t>
+    <t>2022-06-06T20:42:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T20:42:46+00:00</t>
+    <t>2022-06-14T16:27:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-14T16:27:05+00:00</t>
+    <t>2022-07-12T18:21:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-12T18:21:32+00:00</t>
+    <t>2022-07-13T16:07:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-13T16:07:41+00:00</t>
+    <t>2022-07-20T21:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:33:26+00:00</t>
+    <t>2022-07-20T21:53:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:53:07+00:00</t>
+    <t>2022-07-20T21:57:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:57:20+00:00</t>
+    <t>2022-07-25T23:14:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:19:23+00:00</t>
+    <t>2022-07-26T13:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:53:56+00:00</t>
+    <t>2022-07-26T20:21:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:21:45+00:00</t>
+    <t>2022-07-26T20:30:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:30:24+00:00</t>
+    <t>2022-07-26T20:32:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:32:00+00:00</t>
+    <t>2022-07-26T20:38:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:38:10+00:00</t>
+    <t>2022-07-26T20:48:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:48:14+00:00</t>
+    <t>2022-07-26T20:53:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:53:01+00:00</t>
+    <t>2022-07-26T20:56:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:56:12+00:00</t>
+    <t>2022-07-26T20:57:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:57:39+00:00</t>
+    <t>2022-07-26T21:21:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:21:24+00:00</t>
+    <t>2022-07-26T21:40:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:40:22+00:00</t>
+    <t>2022-07-26T21:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:41:29+00:00</t>
+    <t>2022-07-26T21:42:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:42:01+00:00</t>
+    <t>2022-07-26T21:42:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:42:43+00:00</t>
+    <t>2022-07-26T21:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:43:18+00:00</t>
+    <t>2022-08-15T19:44:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T19:44:05+00:00</t>
+    <t>2022-08-15T20:51:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T20:51:57+00:00</t>
+    <t>2022-08-16T21:28:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T21:28:14+00:00</t>
+    <t>2022-08-23T21:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T21:30:49+00:00</t>
+    <t>2022-09-08T16:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:47:29+00:00</t>
+    <t>2022-09-08T16:52:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:52:01+00:00</t>
+    <t>2022-09-08T20:49:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T20:49:17+00:00</t>
+    <t>2022-09-08T22:16:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T22:16:21+00:00</t>
+    <t>2022-09-20T22:52:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-20T22:52:25+00:00</t>
+    <t>2022-09-21T21:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T21:21:33+00:00</t>
+    <t>2022-09-22T20:32:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T20:32:21+00:00</t>
+    <t>2022-10-04T16:21:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-address-type-value-set.xlsx
+++ b/ValueSet-bc-address-type-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-04T16:21:03+00:00</t>
+    <t>2022-10-05T16:43:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
